--- a/data/trans_bre/P5_7-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,69</t>
+          <t>-1,08; 2,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,48</t>
+          <t>-1,04; 7,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,81</t>
+          <t>-1,1; 2,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,94</t>
+          <t>-1,06; 8,05</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,36%</t>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,26</t>
+          <t>-1,35; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,51</t>
+          <t>-2,59; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,36</t>
+          <t>-1,37; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,57</t>
+          <t>-2,62; 1,29</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>-0,95%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,96</t>
+          <t>-3,6; 1,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 1,13</t>
+          <t>-4,73; 2,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,0</t>
+          <t>-3,69; 1,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 1,15</t>
+          <t>-4,73; 2,68</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,42</t>
+          <t>-0,83; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,32</t>
+          <t>-1,06; 2,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,46</t>
+          <t>-0,84; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,46</t>
+          <t>-1,08; 3,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_7-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.6509830747464918</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9233461736752213</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.00672342973395684</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.009612200272847841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 2,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 7,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,63</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 8,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.080002008482929</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.395694846821116</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.01102159822474427</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.01424617389240697</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.505670499144301</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.148654170256743</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.02627249106838297</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.05570085632964653</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 2,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 1,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 2,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,62; 1,29</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3597967404537661</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.08840400175409435</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.00368355798038387</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.000903762066457823</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,86%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.35399212194262</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.993531807692345</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.01373019768771677</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.02017464893436568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 1,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 2,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 1,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 2,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.240510896634403</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.257294784385379</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.0231721997089583</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.02333314733369736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,37%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.8516799097681993</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.544938257603635</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.008633437500717297</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.02586147946959479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,44</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 2,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,49</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 3,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.601291463734003</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.779609136268096</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.03691290867471567</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.08887666155799101</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.933775721925308</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9405182734548947</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.01979718723922459</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.009617801008301246</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3403724081671222</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1629429778954083</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.003494945369632554</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.001678992860529941</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.8251426755580367</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.315579153736876</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.00842979445759388</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.01337158265168073</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.444774418964237</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.291783604606429</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.014941517998419</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.02403630390052533</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
